--- a/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsNH.xlsx
+++ b/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsNH.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>occupation</t>
   </si>
@@ -28,13 +28,16 @@
     <t>blacksmith</t>
   </si>
   <si>
+    <t>carpenter</t>
+  </si>
+  <si>
     <t>clerk</t>
   </si>
   <si>
-    <t>cordwainer</t>
-  </si>
-  <si>
-    <t>esquire</t>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>esq</t>
   </si>
   <si>
     <t>farmer</t>
@@ -46,9 +49,6 @@
     <t>goldsmith</t>
   </si>
   <si>
-    <t>joiner</t>
-  </si>
-  <si>
     <t>marniner</t>
   </si>
   <si>
@@ -58,7 +58,7 @@
     <t>painter</t>
   </si>
   <si>
-    <t>physician</t>
+    <t>shoemaker</t>
   </si>
   <si>
     <t>spinster</t>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>widow</t>
-  </si>
-  <si>
-    <t>yeoman</t>
   </si>
 </sst>
 </file>
@@ -431,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,7 +472,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>715.5999999999999</v>
+        <v>106.61</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -486,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>742.05</v>
+        <v>715.5999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -497,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>61539.89</v>
+        <v>7111.43</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -508,7 +505,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>778.04</v>
+        <v>61539.89</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -519,7 +516,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>3603.06</v>
+        <v>4175.98</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -530,7 +527,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>871.3200000000001</v>
+        <v>3603.06</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -541,7 +538,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>106.61</v>
+        <v>871.3200000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -585,7 +582,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>7111.43</v>
+        <v>742.05</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -630,17 +627,6 @@
       </c>
       <c r="C18">
         <v>8790.450000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19">
-        <v>3397.94</v>
       </c>
     </row>
   </sheetData>

--- a/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsNH.xlsx
+++ b/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsNH.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>occupation</t>
   </si>
   <si>
     <t>6p_total</t>
+  </si>
+  <si>
+    <t># of people</t>
+  </si>
+  <si>
+    <t>average debt per person</t>
   </si>
   <si>
     <t>baker</t>
@@ -428,205 +434,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>2159.04</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2159.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>54.88</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>54.88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>106.61</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>53.305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>715.5999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>102.2285714285714</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>7111.43</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>395.0794444444444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>61539.89</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>66</v>
+      </c>
+      <c r="E7">
+        <v>932.4225757575757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>4175.98</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>321.2292307692308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>3603.06</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>600.5100000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>871.3200000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>871.3200000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>785.62</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>392.81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>29715.41</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1142.900384615384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>48.61</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>48.61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>742.05</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>371.025</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>89.13</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>89.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>2807.27</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>350.9087499999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>149.62</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>149.62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>8790.450000000001</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>879.0450000000001</v>
       </c>
     </row>
   </sheetData>

--- a/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsNH.xlsx
+++ b/S2022/comparison_between_debt_holders/avg_debt_occupation/FinishedSpreadsheets/OccupationsNH.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>occupation</t>
   </si>
@@ -25,58 +25,61 @@
     <t># of people</t>
   </si>
   <si>
+    <t>% of total people</t>
+  </si>
+  <si>
     <t>average debt per person</t>
   </si>
   <si>
+    <t>esq</t>
+  </si>
+  <si>
+    <t>merchant</t>
+  </si>
+  <si>
+    <t>widow</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>farmer</t>
+  </si>
+  <si>
+    <t>gentleman</t>
+  </si>
+  <si>
+    <t>trader</t>
+  </si>
+  <si>
     <t>baker</t>
   </si>
   <si>
+    <t>goldsmith</t>
+  </si>
+  <si>
+    <t>marniner</t>
+  </si>
+  <si>
+    <t>shoemaker</t>
+  </si>
+  <si>
+    <t>clerk</t>
+  </si>
+  <si>
+    <t>treasurer</t>
+  </si>
+  <si>
+    <t>carpenter</t>
+  </si>
+  <si>
+    <t>spinster</t>
+  </si>
+  <si>
     <t>blacksmith</t>
   </si>
   <si>
-    <t>carpenter</t>
-  </si>
-  <si>
-    <t>clerk</t>
-  </si>
-  <si>
-    <t>doctor</t>
-  </si>
-  <si>
-    <t>esq</t>
-  </si>
-  <si>
-    <t>farmer</t>
-  </si>
-  <si>
-    <t>gentleman</t>
-  </si>
-  <si>
-    <t>goldsmith</t>
-  </si>
-  <si>
-    <t>marniner</t>
-  </si>
-  <si>
-    <t>merchant</t>
-  </si>
-  <si>
     <t>painter</t>
-  </si>
-  <si>
-    <t>shoemaker</t>
-  </si>
-  <si>
-    <t>spinster</t>
-  </si>
-  <si>
-    <t>trader</t>
-  </si>
-  <si>
-    <t>treasurer</t>
-  </si>
-  <si>
-    <t>widow</t>
   </si>
 </sst>
 </file>
@@ -434,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,149 +456,176 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>2159.04</v>
+        <v>61539.89</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="E2">
-        <v>2159.04</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>39.75903614457831</v>
+      </c>
+      <c r="F2">
+        <v>932.4225757575757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>54.88</v>
+        <v>29715.41</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>54.88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>15.66265060240964</v>
+      </c>
+      <c r="F3">
+        <v>1142.900384615384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>106.61</v>
+        <v>8790.450000000001</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>53.305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>6.024096385542169</v>
+      </c>
+      <c r="F4">
+        <v>879.0450000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>715.5999999999999</v>
+        <v>7111.43</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>102.2285714285714</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>10.8433734939759</v>
+      </c>
+      <c r="F5">
+        <v>395.0794444444444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>7111.43</v>
+        <v>4175.98</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E6">
-        <v>395.0794444444444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>7.83132530120482</v>
+      </c>
+      <c r="F6">
+        <v>321.2292307692308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>61539.89</v>
+        <v>3603.06</v>
       </c>
       <c r="D7">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>932.4225757575757</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>3.614457831325301</v>
+      </c>
+      <c r="F7">
+        <v>600.5100000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>4175.98</v>
+        <v>2807.27</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E8">
-        <v>321.2292307692308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>4.819277108433735</v>
+      </c>
+      <c r="F8">
+        <v>350.9087499999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>3603.06</v>
+        <v>2159.04</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>600.5100000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.6024096385542169</v>
+      </c>
+      <c r="F9">
+        <v>2159.04</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>871.3200000000001</v>
@@ -604,15 +634,18 @@
         <v>1</v>
       </c>
       <c r="E10">
+        <v>0.6024096385542169</v>
+      </c>
+      <c r="F10">
         <v>871.3200000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>785.62</v>
@@ -621,126 +654,150 @@
         <v>2</v>
       </c>
       <c r="E11">
+        <v>1.204819277108434</v>
+      </c>
+      <c r="F11">
         <v>392.81</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>29715.41</v>
+        <v>742.05</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>1142.900384615384</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>1.204819277108434</v>
+      </c>
+      <c r="F12">
+        <v>371.025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>48.61</v>
+        <v>715.5999999999999</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E13">
-        <v>48.61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>4.216867469879518</v>
+      </c>
+      <c r="F13">
+        <v>102.2285714285714</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>742.05</v>
+        <v>149.62</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>371.025</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.6024096385542169</v>
+      </c>
+      <c r="F14">
+        <v>149.62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>89.13</v>
+        <v>106.61</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>89.13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>1.204819277108434</v>
+      </c>
+      <c r="F15">
+        <v>53.305</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>2807.27</v>
+        <v>89.13</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>350.9087499999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.6024096385542169</v>
+      </c>
+      <c r="F16">
+        <v>89.13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>149.62</v>
+        <v>54.88</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>149.62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>0.6024096385542169</v>
+      </c>
+      <c r="F17">
+        <v>54.88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18">
-        <v>8790.450000000001</v>
+        <v>48.61</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>879.0450000000001</v>
+        <v>0.6024096385542169</v>
+      </c>
+      <c r="F18">
+        <v>48.61</v>
       </c>
     </row>
   </sheetData>
